--- a/NFLStats/Aggregates/LB_aggregate.xlsx
+++ b/NFLStats/Aggregates/LB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,6 +1932,366 @@
         <v>63.66666666666666</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>10.33333333333333</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>-10.33333333333333</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>1.666666666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>37.33333333333334</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>53.33333333333334</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>49.66666666666667</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>41.33333333333334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>57.33333333333334</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>15.33333333333333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>17.66666666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>-1.666666666666666</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>-1.333333333333336</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>-3.666666666666664</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>2.333333333333334</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0.3333333333333335</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>-26.66666666666667</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>-19.33333333333334</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-7.333333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
